--- a/data/trans_orig/P2B_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>105938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89848</v>
+        <v>90236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124927</v>
+        <v>124678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2316337294945786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.19645412568085</v>
+        <v>0.1973008136514409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2731539528335499</v>
+        <v>0.2726094867241423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>261</v>
@@ -765,19 +765,19 @@
         <v>272138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>245393</v>
+        <v>247169</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>300441</v>
+        <v>299299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3312012387981818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2986522185405248</v>
+        <v>0.3008137173453977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3656474967918412</v>
+        <v>0.3642570526358395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>367</v>
@@ -786,19 +786,19 @@
         <v>378075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>347759</v>
+        <v>344647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>411494</v>
+        <v>410106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2955980127190236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2718953345164186</v>
+        <v>0.2694620986906602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3217263929416781</v>
+        <v>0.3206412803469147</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>351412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332423</v>
+        <v>332672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367502</v>
+        <v>367114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7683662705054215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7268460471664501</v>
+        <v>0.7273905132758585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.80354587431915</v>
+        <v>0.8026991863485596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>531</v>
@@ -836,19 +836,19 @@
         <v>549531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>521228</v>
+        <v>522370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>576276</v>
+        <v>574500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6687987612018182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6343525032081592</v>
+        <v>0.6357429473641606</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7013477814594757</v>
+        <v>0.6991862826546025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>881</v>
@@ -857,19 +857,19 @@
         <v>900944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>867525</v>
+        <v>868913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931260</v>
+        <v>934372</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7044019872809764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6782736070583221</v>
+        <v>0.6793587196530853</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7281046654835814</v>
+        <v>0.7305379013093398</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>179919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157330</v>
+        <v>155966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204535</v>
+        <v>202868</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2149312773834756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1879462202615518</v>
+        <v>0.1863172793132829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2443372298001729</v>
+        <v>0.2423454805681162</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>188</v>
@@ -982,19 +982,19 @@
         <v>195505</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>171353</v>
+        <v>171748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>222060</v>
+        <v>221324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2150742788802108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1885048462030836</v>
+        <v>0.1889386971514754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2442869840447005</v>
+        <v>0.2434768011483695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>360</v>
@@ -1003,19 +1003,19 @@
         <v>375424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342283</v>
+        <v>340972</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>410309</v>
+        <v>413684</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2150057228174937</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.19602575873956</v>
+        <v>0.1952749755734187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2349844761519709</v>
+        <v>0.236916923304089</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>657182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>632566</v>
+        <v>634233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>679771</v>
+        <v>681135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7850687226165244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7556627701998267</v>
+        <v>0.7576545194318837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8120537797384482</v>
+        <v>0.8136827206867168</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>692</v>
@@ -1053,19 +1053,19 @@
         <v>713508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>686953</v>
+        <v>687689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>737660</v>
+        <v>737265</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7849257211197892</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7557130159552994</v>
+        <v>0.7565231988516304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8114951537969163</v>
+        <v>0.8110613028485246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1347</v>
@@ -1074,19 +1074,19 @@
         <v>1370689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1335804</v>
+        <v>1332429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1403830</v>
+        <v>1405141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7849942771825063</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7650155238480291</v>
+        <v>0.7630830766959109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8039742412604399</v>
+        <v>0.8047250244265812</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>174243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153117</v>
+        <v>151863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199746</v>
+        <v>198911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2098615739363165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1844168711418835</v>
+        <v>0.1829058796515174</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2405772747280538</v>
+        <v>0.2395721237243109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -1199,19 +1199,19 @@
         <v>205129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180658</v>
+        <v>180521</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>231707</v>
+        <v>229053</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2563130112796842</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2257356682079878</v>
+        <v>0.225564624534634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2895229677603519</v>
+        <v>0.2862064204622424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>367</v>
@@ -1220,19 +1220,19 @@
         <v>379372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>351259</v>
+        <v>344564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>418013</v>
+        <v>411148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2326604122240321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2154188679488522</v>
+        <v>0.2113134329804418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2563575610125231</v>
+        <v>0.2521476788090273</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>656034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>630531</v>
+        <v>631366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>677160</v>
+        <v>678414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7901384260636835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7594227252719463</v>
+        <v>0.7604278762756892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8155831288581166</v>
+        <v>0.8170941203484825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>588</v>
@@ -1270,19 +1270,19 @@
         <v>595178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>568600</v>
+        <v>571254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>619649</v>
+        <v>619786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7436869887203158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7104770322396482</v>
+        <v>0.7137935795377576</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7742643317920123</v>
+        <v>0.774435375465366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1239</v>
@@ -1291,19 +1291,19 @@
         <v>1251212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1212571</v>
+        <v>1219436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1279325</v>
+        <v>1286020</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7673395877759679</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7436424389874775</v>
+        <v>0.7478523211909727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7845811320511481</v>
+        <v>0.7886865670195581</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70743</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57517</v>
+        <v>57007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87754</v>
+        <v>87139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2299819984423247</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1869869197694745</v>
+        <v>0.1853274099129228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2852863798739405</v>
+        <v>0.2832871470891409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1416,19 +1416,19 @@
         <v>63818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49848</v>
+        <v>49949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78799</v>
+        <v>78154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2249831956536603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1757317201728347</v>
+        <v>0.1760909831941331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2777962147784365</v>
+        <v>0.2755232491389647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -1437,19 +1437,19 @@
         <v>134561</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116090</v>
+        <v>114928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155909</v>
+        <v>155405</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2275838135069716</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1963441809660623</v>
+        <v>0.194378932570703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2636905856708871</v>
+        <v>0.262837424673121</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>236858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>219847</v>
+        <v>220462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250084</v>
+        <v>250594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7700180015576753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7147136201260595</v>
+        <v>0.7167128529108591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8130130802305254</v>
+        <v>0.8146725900870773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>219</v>
@@ -1487,19 +1487,19 @@
         <v>219839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204858</v>
+        <v>205503</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233809</v>
+        <v>233708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7750168043463397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7222037852215634</v>
+        <v>0.7244767508610354</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8242682798271652</v>
+        <v>0.8239090168058668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>450</v>
@@ -1508,19 +1508,19 @@
         <v>456698</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>435350</v>
+        <v>435854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475169</v>
+        <v>476331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7724161864930283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7363094143291129</v>
+        <v>0.737162575326879</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8036558190339377</v>
+        <v>0.805621067429297</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>530843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>490151</v>
+        <v>490487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>574449</v>
+        <v>571004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2182446580172524</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2015151696132871</v>
+        <v>0.2016533375531163</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2361725488427517</v>
+        <v>0.23475610438519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>711</v>
@@ -1633,19 +1633,19 @@
         <v>736590</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>689069</v>
+        <v>689226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>785481</v>
+        <v>785470</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2616990758931566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2448153944720674</v>
+        <v>0.2448713694615782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2790692898659508</v>
+        <v>0.2790652681564689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1227</v>
@@ -1654,19 +1654,19 @@
         <v>1267433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1203839</v>
+        <v>1205576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1330782</v>
+        <v>1335721</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2415550064452873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.22943478270838</v>
+        <v>0.2297659365929381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2536285142486045</v>
+        <v>0.2545696536211826</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1901486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1857880</v>
+        <v>1861325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1942178</v>
+        <v>1941842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7817553419827475</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7638274511572483</v>
+        <v>0.7652438956148098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7984848303867129</v>
+        <v>0.7983466624468837</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2030</v>
@@ -1704,19 +1704,19 @@
         <v>2078056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2029165</v>
+        <v>2029176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2125577</v>
+        <v>2125420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7383009241068434</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7209307101340492</v>
+        <v>0.7209347318435312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7551846055279325</v>
+        <v>0.7551286305384221</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3917</v>
@@ -1725,19 +1725,19 @@
         <v>3979542</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3916193</v>
+        <v>3911254</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4043136</v>
+        <v>4041399</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7584449935547127</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7463714857513957</v>
+        <v>0.7454303463788174</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7705652172916201</v>
+        <v>0.770234063407062</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>493861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>461490</v>
+        <v>465427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>522589</v>
+        <v>523511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5823313107860448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5441611946846293</v>
+        <v>0.548803668087978</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6162066740431147</v>
+        <v>0.6172930098116708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>546</v>
@@ -2090,19 +2090,19 @@
         <v>587095</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>556360</v>
+        <v>555507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>619692</v>
+        <v>619335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5822131103279428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5517335694201383</v>
+        <v>0.550887820796737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.61453895221404</v>
+        <v>0.614184836577637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1013</v>
@@ -2111,19 +2111,19 @@
         <v>1080956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1037177</v>
+        <v>1037139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1126628</v>
+        <v>1130536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5822671071006295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5586849078223847</v>
+        <v>0.5586646829100643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6068688522014929</v>
+        <v>0.6089738648674794</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>354214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>325486</v>
+        <v>324564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>386585</v>
+        <v>382648</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4176686892139552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3837933259568853</v>
+        <v>0.3827069901883292</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4558388053153706</v>
+        <v>0.451196331912022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>385</v>
@@ -2161,19 +2161,19 @@
         <v>421290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388693</v>
+        <v>389050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452025</v>
+        <v>452878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4177868896720572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3854610477859601</v>
+        <v>0.3858151634223629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4482664305798617</v>
+        <v>0.449112179203263</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>706</v>
@@ -2182,19 +2182,19 @@
         <v>775505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729833</v>
+        <v>725925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>819284</v>
+        <v>819322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4177328928993706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3931311477985072</v>
+        <v>0.3910261351325205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4413150921776152</v>
+        <v>0.4413353170899356</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>416099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>389221</v>
+        <v>386547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>447033</v>
+        <v>446987</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5158532139419892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4825317120872497</v>
+        <v>0.4792163017923987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5542035157634583</v>
+        <v>0.5541462021269068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>488</v>
@@ -2307,19 +2307,19 @@
         <v>522278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>491356</v>
+        <v>490563</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>553813</v>
+        <v>554744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.536892308610725</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.505104842153701</v>
+        <v>0.5042895156142593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5693097651478327</v>
+        <v>0.5702665778420449</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>880</v>
@@ -2328,19 +2328,19 @@
         <v>938377</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>891295</v>
+        <v>891061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>977673</v>
+        <v>975315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5273550531245683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5008956316386185</v>
+        <v>0.5007642125109113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5494392925747704</v>
+        <v>0.5481141367178399</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>390524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>359590</v>
+        <v>359636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417402</v>
+        <v>420076</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4841467860580108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4457964842365417</v>
+        <v>0.4458537978730931</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5174682879127502</v>
+        <v>0.5207836982076014</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>419</v>
@@ -2378,19 +2378,19 @@
         <v>450502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418967</v>
+        <v>418036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481424</v>
+        <v>482217</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4631076913892749</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4306902348521673</v>
+        <v>0.4297334221579549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.494895157846299</v>
+        <v>0.4957104843857407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>791</v>
@@ -2399,19 +2399,19 @@
         <v>841025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>801729</v>
+        <v>804087</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>888107</v>
+        <v>888341</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4726449468754317</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4505607074252296</v>
+        <v>0.45188586328216</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4991043683613813</v>
+        <v>0.4992357874890886</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>314097</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>288869</v>
+        <v>285751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341700</v>
+        <v>338687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4517990094997253</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4155106433943557</v>
+        <v>0.4110260423843622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4915029428156206</v>
+        <v>0.4871689377706079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>367</v>
@@ -2524,19 +2524,19 @@
         <v>394975</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>364954</v>
+        <v>364974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>421974</v>
+        <v>425195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5153614585936457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4761908701051584</v>
+        <v>0.476216243662305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5505896598211225</v>
+        <v>0.5547924188172363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>663</v>
@@ -2545,19 +2545,19 @@
         <v>709072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>669909</v>
+        <v>671052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>746093</v>
+        <v>750441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4851281638651851</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4583339001252366</v>
+        <v>0.4591162410162206</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5104573774120124</v>
+        <v>0.5134321461554394</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>381117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>353514</v>
+        <v>356527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406345</v>
+        <v>409463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5482009905002747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5084970571843793</v>
+        <v>0.5128310622293921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5844893566056442</v>
+        <v>0.5889739576156379</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -2595,19 +2595,19 @@
         <v>371428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>344429</v>
+        <v>341208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401449</v>
+        <v>401429</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4846385414063544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4494103401788774</v>
+        <v>0.4452075811827638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5238091298948416</v>
+        <v>0.523783756337695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>710</v>
@@ -2616,19 +2616,19 @@
         <v>752545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>715524</v>
+        <v>711176</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>791708</v>
+        <v>790565</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5148718361348149</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4895426225879876</v>
+        <v>0.4865678538445605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5416660998747631</v>
+        <v>0.5408837589837794</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>192133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173045</v>
+        <v>172075</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213207</v>
+        <v>213449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5034615487878527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4534454152351926</v>
+        <v>0.4509020884568474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5586838875748652</v>
+        <v>0.5593177315909516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>175</v>
@@ -2741,19 +2741,19 @@
         <v>189993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168969</v>
+        <v>168811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211041</v>
+        <v>211104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4965386352205062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4415928894924578</v>
+        <v>0.4411795474486978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5515456991248036</v>
+        <v>0.5517115340767448</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>349</v>
@@ -2762,19 +2762,19 @@
         <v>382126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>355251</v>
+        <v>354422</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>413341</v>
+        <v>411276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4999955091596286</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4648314198028834</v>
+        <v>0.463746468822859</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5408396465096924</v>
+        <v>0.5381382862377539</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>189490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168416</v>
+        <v>168174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208578</v>
+        <v>209548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4965384512121473</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4413161124251349</v>
+        <v>0.4406822684090484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5465545847648074</v>
+        <v>0.5490979115431527</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -2812,19 +2812,19 @@
         <v>192642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171594</v>
+        <v>171531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213666</v>
+        <v>213824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5034613647794938</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4484543008751966</v>
+        <v>0.4482884659232557</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5584071105075422</v>
+        <v>0.5588204525513022</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>342</v>
@@ -2833,19 +2833,19 @@
         <v>382132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>350917</v>
+        <v>352982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409007</v>
+        <v>409836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5000044908403715</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4591603534903074</v>
+        <v>0.4618617137622461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5351685801971166</v>
+        <v>0.5362535311771408</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1416189</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1365342</v>
+        <v>1357580</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1474535</v>
+        <v>1470920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5184591126668966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4998443095932335</v>
+        <v>0.4970027095459624</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5398192452438857</v>
+        <v>0.538495720086841</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1576</v>
@@ -2958,19 +2958,19 @@
         <v>1694341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1633067</v>
+        <v>1629714</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1749101</v>
+        <v>1758671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5412878072137772</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5217126943054974</v>
+        <v>0.5206415761351076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5587819680814937</v>
+        <v>0.561839355690626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2905</v>
@@ -2979,19 +2979,19 @@
         <v>3110530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3035859</v>
+        <v>3029440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3200087</v>
+        <v>3188381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5306497711950614</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.517911145114449</v>
+        <v>0.516816039447762</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5459279630482392</v>
+        <v>0.5439309861640167</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1315346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1257000</v>
+        <v>1260615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1366193</v>
+        <v>1373955</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4815408873331034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4601807547561144</v>
+        <v>0.4615042799131589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5001556904067666</v>
+        <v>0.5029972904540376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1325</v>
@@ -3029,19 +3029,19 @@
         <v>1435862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1381102</v>
+        <v>1371532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1497136</v>
+        <v>1500489</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4587121927862228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4412180319185062</v>
+        <v>0.438160644309374</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4782873056945025</v>
+        <v>0.4793584238648925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2549</v>
@@ -3050,19 +3050,19 @@
         <v>2751208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2661651</v>
+        <v>2673357</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2825879</v>
+        <v>2832298</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4693502288049386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4540720369517607</v>
+        <v>0.4560690138359832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4820888548855509</v>
+        <v>0.4831839605522378</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>386385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>359178</v>
+        <v>354338</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>417496</v>
+        <v>416114</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4395380102607105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4085878154728616</v>
+        <v>0.4030825326791777</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4749284245119655</v>
+        <v>0.4733562505006861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>531</v>
@@ -3415,19 +3415,19 @@
         <v>561617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>530199</v>
+        <v>527989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>595437</v>
+        <v>595038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5138197060598393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4850761344981103</v>
+        <v>0.4830538926581237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5447620179997107</v>
+        <v>0.5443968898124176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>900</v>
@@ -3436,19 +3436,19 @@
         <v>948002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>904565</v>
+        <v>906159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>992236</v>
+        <v>995798</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4807082525441147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4586822729304207</v>
+        <v>0.4594908893048008</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5031383286654298</v>
+        <v>0.5049446457957094</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>492686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>461575</v>
+        <v>462957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>519893</v>
+        <v>524733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5604619897392894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5250715754880343</v>
+        <v>0.5266437494993139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5914121845271383</v>
+        <v>0.5969174673208222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>494</v>
@@ -3486,19 +3486,19 @@
         <v>531406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>497586</v>
+        <v>497985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>562824</v>
+        <v>565034</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4861802939401607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4552379820002893</v>
+        <v>0.4556031101875825</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5149238655018897</v>
+        <v>0.5169461073418764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>962</v>
@@ -3507,19 +3507,19 @@
         <v>1024092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>979858</v>
+        <v>976296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1067529</v>
+        <v>1065935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5192917474558852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4968616713345702</v>
+        <v>0.4950553542042905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5413177270695793</v>
+        <v>0.5405091106951994</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>256286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231059</v>
+        <v>232809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281910</v>
+        <v>282303</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3872952676841889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3491725859753338</v>
+        <v>0.3518169378135463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4260176869021221</v>
+        <v>0.4266119959341942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -3632,19 +3632,19 @@
         <v>363483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>333180</v>
+        <v>334861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>395363</v>
+        <v>393412</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4329348935769886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3968426818087126</v>
+        <v>0.3988438475875807</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.470906514274806</v>
+        <v>0.468583051769682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>591</v>
@@ -3653,19 +3653,19 @@
         <v>619768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>584604</v>
+        <v>580891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>659883</v>
+        <v>658741</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4128183181723147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3893956659297916</v>
+        <v>0.3869230832003878</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4395378796465562</v>
+        <v>0.4387776469406511</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>405446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379822</v>
+        <v>379429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>430673</v>
+        <v>428923</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6127047323158111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5739823130978778</v>
+        <v>0.5733880040658057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6508274140246663</v>
+        <v>0.6481830621864537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -3703,19 +3703,19 @@
         <v>476095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>444215</v>
+        <v>446166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>506398</v>
+        <v>504717</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5670651064230113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.529093485725194</v>
+        <v>0.531416948230318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6031573181912875</v>
+        <v>0.6011561524124194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>847</v>
@@ -3724,19 +3724,19 @@
         <v>881542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>841427</v>
+        <v>842569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>916706</v>
+        <v>920419</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5871816818276853</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5604621203534439</v>
+        <v>0.5612223530593489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6106043340702085</v>
+        <v>0.6130769167996122</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>250065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>225601</v>
+        <v>226067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275029</v>
+        <v>274765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.428285733944327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3863857124357942</v>
+        <v>0.3871848544338786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4710413903549185</v>
+        <v>0.4705899602855143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>255</v>
@@ -3849,19 +3849,19 @@
         <v>270162</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>246684</v>
+        <v>246093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>296613</v>
+        <v>295164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4345833651082796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3968175307076206</v>
+        <v>0.3958657896175159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4771336848866716</v>
+        <v>0.4748027102410134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -3870,19 +3870,19 @@
         <v>520227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>484545</v>
+        <v>485296</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>555024</v>
+        <v>553767</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4315332364724518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4019353251444484</v>
+        <v>0.4025582425555704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4603979294486676</v>
+        <v>0.4593555965060138</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>333809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308845</v>
+        <v>309109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>358273</v>
+        <v>357807</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.571714266055673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5289586096450816</v>
+        <v>0.5294100397144856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6136142875642059</v>
+        <v>0.6128151455661214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -3920,19 +3920,19 @@
         <v>351495</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325044</v>
+        <v>326493</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>374973</v>
+        <v>375564</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5654166348917204</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5228663151133284</v>
+        <v>0.5251972897589865</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6031824692923796</v>
+        <v>0.6041342103824845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>651</v>
@@ -3941,19 +3941,19 @@
         <v>685304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650507</v>
+        <v>651764</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>720986</v>
+        <v>720235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5684667635275482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5396020705513325</v>
+        <v>0.5406444034939865</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5980646748555517</v>
+        <v>0.5974417574444296</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>139782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121732</v>
+        <v>118518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158794</v>
+        <v>157599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3990045061972526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3474818735118096</v>
+        <v>0.3383091023791425</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4532738192624121</v>
+        <v>0.4498638419682252</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -4066,19 +4066,19 @@
         <v>185761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>165642</v>
+        <v>164930</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205281</v>
+        <v>204998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.483648280626861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4312664665845689</v>
+        <v>0.4294147259781557</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.534470913686987</v>
+        <v>0.5337347426073402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>304</v>
@@ -4087,19 +4087,19 @@
         <v>325542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>299191</v>
+        <v>297656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353247</v>
+        <v>353176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.443271685736661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4073908614231997</v>
+        <v>0.4053010395445564</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4809960651600581</v>
+        <v>0.4808984656534425</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>210544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191532</v>
+        <v>192727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228594</v>
+        <v>231808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6009954938027474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5467261807375879</v>
+        <v>0.5501361580317748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6525181264881904</v>
+        <v>0.6616908976208575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -4137,19 +4137,19 @@
         <v>198321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>178801</v>
+        <v>179084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218440</v>
+        <v>219152</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.516351719373139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4655290863130135</v>
+        <v>0.4662652573926598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5687335334154311</v>
+        <v>0.5705852740218443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>377</v>
@@ -4158,19 +4158,19 @@
         <v>408866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381161</v>
+        <v>381232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>435217</v>
+        <v>436752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5567283142633389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.519003934839942</v>
+        <v>0.5191015343465575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5926091385768003</v>
+        <v>0.5946989604554437</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1032518</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>980008</v>
+        <v>983322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1088396</v>
+        <v>1083856</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4171782226941681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3959621874666508</v>
+        <v>0.397301270705074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4397551630019346</v>
+        <v>0.4379207606229367</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1301</v>
@@ -4283,19 +4283,19 @@
         <v>1381022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1327129</v>
+        <v>1321094</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1438230</v>
+        <v>1435857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4700006748097911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4516593362728776</v>
+        <v>0.4496056260919667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4894702352297589</v>
+        <v>0.4886627157695837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2289</v>
@@ -4304,19 +4304,19 @@
         <v>2413540</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2338934</v>
+        <v>2343698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2483157</v>
+        <v>2490167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4458500242358157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4320682029238367</v>
+        <v>0.4329483007052811</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4587104165468429</v>
+        <v>0.4600054045502644</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1442486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1386608</v>
+        <v>1391148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1494996</v>
+        <v>1491682</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5828217773058318</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5602448369980653</v>
+        <v>0.5620792393770633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6040378125333492</v>
+        <v>0.6026987292949257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1447</v>
@@ -4354,19 +4354,19 @@
         <v>1557318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1500110</v>
+        <v>1502483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1611211</v>
+        <v>1617246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5299993251902089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5105297647702411</v>
+        <v>0.5113372842304162</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5483406637271223</v>
+        <v>0.5503943739080333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2837</v>
@@ -4375,19 +4375,19 @@
         <v>2999804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2930187</v>
+        <v>2923177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3074410</v>
+        <v>3069646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5541499757641843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.541289583453157</v>
+        <v>0.5399945954497356</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5679317970761631</v>
+        <v>0.5670516992947189</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>124362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107460</v>
+        <v>107009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147286</v>
+        <v>145335</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3655523548369783</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3158705817047386</v>
+        <v>0.3145460283544232</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4329358720408378</v>
+        <v>0.4272027967092316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>283</v>
@@ -4740,19 +4740,19 @@
         <v>198013</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175464</v>
+        <v>179945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216692</v>
+        <v>217956</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3914160064662745</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3468436821979926</v>
+        <v>0.355701011052662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4283394184028313</v>
+        <v>0.4308391993610128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>401</v>
@@ -4761,19 +4761,19 @@
         <v>322374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>294758</v>
+        <v>298656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>351736</v>
+        <v>350871</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3810165655529732</v>
+        <v>0.3810165655529733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3483771520448392</v>
+        <v>0.3529837114695374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4157196723171805</v>
+        <v>0.4146972950756269</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>215840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>192916</v>
+        <v>194867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232742</v>
+        <v>233193</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6344476451630217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5670641279591622</v>
+        <v>0.5727972032907684</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6841294182952612</v>
+        <v>0.6854539716455768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>433</v>
@@ -4811,19 +4811,19 @@
         <v>307875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289196</v>
+        <v>287932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>330424</v>
+        <v>325943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6085839935337254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.571660581597169</v>
+        <v>0.5691608006389879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6531563178020074</v>
+        <v>0.6442989889473382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>645</v>
@@ -4832,19 +4832,19 @@
         <v>523716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>494354</v>
+        <v>495219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>551332</v>
+        <v>547434</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6189834344470267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5842803276828195</v>
+        <v>0.5853027049243729</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6516228479551602</v>
+        <v>0.6470162885304626</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>200216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175254</v>
+        <v>177260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>225413</v>
+        <v>225610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2916784903164301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2553124186425917</v>
+        <v>0.2582353470164313</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3283855711470661</v>
+        <v>0.3286719255328426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>436</v>
@@ -4957,19 +4957,19 @@
         <v>295002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>271389</v>
+        <v>270808</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320598</v>
+        <v>321101</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3274991499112556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3012843437798422</v>
+        <v>0.3006394947954864</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3559138963461572</v>
+        <v>0.3564724266168193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>644</v>
@@ -4978,19 +4978,19 @@
         <v>495219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461781</v>
+        <v>458355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>533078</v>
+        <v>529579</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3120075342122136</v>
+        <v>0.3120075342122135</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2909406378242486</v>
+        <v>0.2887819302120742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3358602052369114</v>
+        <v>0.333656174999405</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>486212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461015</v>
+        <v>460818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>511174</v>
+        <v>509168</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.70832150968357</v>
+        <v>0.7083215096835699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6716144288529339</v>
+        <v>0.6713280744671575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7446875813574085</v>
+        <v>0.741764652983569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>910</v>
@@ -5028,19 +5028,19 @@
         <v>605771</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>580175</v>
+        <v>579672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>629384</v>
+        <v>629965</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6725008500887443</v>
+        <v>0.6725008500887444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6440861036538428</v>
+        <v>0.6435275733831805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6987156562201577</v>
+        <v>0.6993605052045136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1406</v>
@@ -5049,19 +5049,19 @@
         <v>1091982</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1054123</v>
+        <v>1057622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1125420</v>
+        <v>1128846</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6879924657877866</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6641397947630885</v>
+        <v>0.6663438250005945</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7090593621757512</v>
+        <v>0.7112180697879257</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>150991</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130975</v>
+        <v>127390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176258</v>
+        <v>175103</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2182450403173475</v>
+        <v>0.2182450403173474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1893136566375217</v>
+        <v>0.1841314474701721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.25476542894254</v>
+        <v>0.2530958568815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>290</v>
@@ -5174,19 +5174,19 @@
         <v>202101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180914</v>
+        <v>182081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223416</v>
+        <v>223683</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2497444454706078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2235625619556632</v>
+        <v>0.2250049433903198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2760846494530669</v>
+        <v>0.2764141853758164</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>442</v>
@@ -5195,19 +5195,19 @@
         <v>353092</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319817</v>
+        <v>320869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>384187</v>
+        <v>385791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2352264093444084</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2130587116532833</v>
+        <v>0.21376000873669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2559419010558871</v>
+        <v>0.2570101200951628</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>540852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>515585</v>
+        <v>516740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560868</v>
+        <v>564453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7817549596826525</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.74523457105746</v>
+        <v>0.7469041431185002</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8106863433624782</v>
+        <v>0.8158685525298283</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>925</v>
@@ -5245,19 +5245,19 @@
         <v>607129</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585814</v>
+        <v>585547</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>628316</v>
+        <v>627149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7502555545293923</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.723915350546933</v>
+        <v>0.723585814624184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7764374380443368</v>
+        <v>0.7749950566096804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1510</v>
@@ -5266,19 +5266,19 @@
         <v>1147981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1116886</v>
+        <v>1115282</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1181256</v>
+        <v>1180204</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7647735906555916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7440580989441129</v>
+        <v>0.7429898799048371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7869412883467165</v>
+        <v>0.7862399912633102</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>87874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72278</v>
+        <v>72505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105883</v>
+        <v>106333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1410824525984068</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1160434255583356</v>
+        <v>0.1164068388258874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1699957893070783</v>
+        <v>0.1707176895550846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -5391,19 +5391,19 @@
         <v>95992</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82456</v>
+        <v>81785</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112712</v>
+        <v>112799</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1504906668399422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1292699712976416</v>
+        <v>0.1282174493609523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1767028837040321</v>
+        <v>0.1768392432530972</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -5412,19 +5412,19 @@
         <v>183866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159496</v>
+        <v>161151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209404</v>
+        <v>205846</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.145842553729026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1265118652875373</v>
+        <v>0.1278250698602259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.16609872042022</v>
+        <v>0.1632771851177462</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>534982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>516973</v>
+        <v>516523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>550578</v>
+        <v>550351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8589175474015933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8300042106929217</v>
+        <v>0.8292823104449152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.883956574441664</v>
+        <v>0.8835931611741124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>845</v>
@@ -5462,19 +5462,19 @@
         <v>541870</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>525150</v>
+        <v>525063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>555406</v>
+        <v>556077</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8495093331600578</v>
+        <v>0.8495093331600577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.823297116295968</v>
+        <v>0.8231607567469028</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8707300287023583</v>
+        <v>0.8717825506390474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1415</v>
@@ -5483,19 +5483,19 @@
         <v>1076852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1051314</v>
+        <v>1054872</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1101222</v>
+        <v>1099567</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8541574462709738</v>
+        <v>0.8541574462709741</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8339012795797799</v>
+        <v>0.8367228148822535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8734881347124626</v>
+        <v>0.8721749301397741</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>563443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>521393</v>
+        <v>518266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>606573</v>
+        <v>608945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2406510561090296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2226909359598409</v>
+        <v>0.2213555776312356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2590723039349782</v>
+        <v>0.2600849928664431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1154</v>
@@ -5608,19 +5608,19 @@
         <v>791108</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>750886</v>
+        <v>751432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>831580</v>
+        <v>831357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2772166932917145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2631221075348205</v>
+        <v>0.2633135725959355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.291398623779146</v>
+        <v>0.2913204258784667</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1726</v>
@@ -5629,19 +5629,19 @@
         <v>1354551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1292909</v>
+        <v>1296308</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1415169</v>
+        <v>1417861</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2607372299210433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2488717860387117</v>
+        <v>0.2495259377154079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2724055104176124</v>
+        <v>0.2729236042021376</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1777886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1734756</v>
+        <v>1732384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1819936</v>
+        <v>1823063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7593489438909705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7409276960650218</v>
+        <v>0.7399150071335566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7773090640401594</v>
+        <v>0.7786444223687639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3113</v>
@@ -5679,19 +5679,19 @@
         <v>2062646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2022174</v>
+        <v>2022397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2102868</v>
+        <v>2102322</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7227833067082855</v>
+        <v>0.7227833067082856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.708601376220854</v>
+        <v>0.7086795741215334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7368778924651794</v>
+        <v>0.7366864274040646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4976</v>
@@ -5700,19 +5700,19 @@
         <v>3840531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3779913</v>
+        <v>3777221</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3902173</v>
+        <v>3898774</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7392627700789567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7275944895823876</v>
+        <v>0.7270763957978624</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7511282139612883</v>
+        <v>0.750474062284592</v>
       </c>
     </row>
     <row r="18">
